--- a/notebooks/sub_stations.xlsx
+++ b/notebooks/sub_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4017,3163 +4017,6 @@
         <v>52.3613094</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>240489038</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Wibautstraat</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>POINT (4.9120486 52.3545947)</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>4.9120486</v>
-      </c>
-      <c r="K89" t="n">
-        <v>52.3545947</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>250222259</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Zuid</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>POINT (4.8739781 52.3390351)</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>4.8739781</v>
-      </c>
-      <c r="K90" t="n">
-        <v>52.3390351</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>250222332</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Station Sloterdijk</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>POINT (4.8389786 52.3890375)</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>4.8389786</v>
-      </c>
-      <c r="K91" t="n">
-        <v>52.3890375</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>250222348</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Isolatorweg</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>POINT (4.8505958 52.3951031)</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>4.8505958</v>
-      </c>
-      <c r="K92" t="n">
-        <v>52.3951031</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>250224115</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>De Vlugtlaan</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>POINT (4.8380564 52.3794609)</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>4.8380564</v>
-      </c>
-      <c r="K93" t="n">
-        <v>52.3794609</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>250224725</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Postjesweg</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>POINT (4.8338612 52.3645995)</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>4.8338612</v>
-      </c>
-      <c r="K94" t="n">
-        <v>52.3645995</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>250225300</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Heemstedestraat</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>POINT (4.834401 52.3523291)</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>4.834401</v>
-      </c>
-      <c r="K95" t="n">
-        <v>52.3523291</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>250225792</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Henk Sneevlietweg</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>POINT (4.834395 52.346385)</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>4.834395</v>
-      </c>
-      <c r="K96" t="n">
-        <v>52.346385</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>250229766</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>POINT (4.9010471 52.3775081)</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>4.9010471</v>
-      </c>
-      <c r="K97" t="n">
-        <v>52.3775081</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>250233796</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Strandvliet</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>POINT (4.9413977 52.3186119)</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>4.9413977</v>
-      </c>
-      <c r="K98" t="n">
-        <v>52.3186119</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>250233804</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Bijlmer ArenA</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>POINT (4.9476178 52.311806)</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>4.9476178</v>
-      </c>
-      <c r="K99" t="n">
-        <v>52.311806</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>250236254</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Venserpolder</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>POINT (4.9464091 52.3267211)</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>4.9464091</v>
-      </c>
-      <c r="K100" t="n">
-        <v>52.3267211</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>250236271</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Verrijn Stuartweg</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>POINT (4.9672062 52.3282901)</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>4.9672062</v>
-      </c>
-      <c r="K101" t="n">
-        <v>52.3282901</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>250236278</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Ganzenhoef</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>POINT (4.9728869 52.3236783)</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>4.9728869</v>
-      </c>
-      <c r="K102" t="n">
-        <v>52.3236783</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>250236282</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>POINT (4.9843391 52.3111615)</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>4.9843391</v>
-      </c>
-      <c r="K103" t="n">
-        <v>52.3111615</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>304800800</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Heemstedestraat</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>POINT (4.8342252 52.3523254)</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>4.8342252</v>
-      </c>
-      <c r="K104" t="n">
-        <v>52.3523254</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>1776157172</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Wibautstraat</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>POINT (4.9118953 52.3545601)</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>4.9118953</v>
-      </c>
-      <c r="K105" t="n">
-        <v>52.3545601</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>1776417898</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Ganzenhoef</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>POINT (4.9730859 52.3237237)</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>4.9730859</v>
-      </c>
-      <c r="K106" t="n">
-        <v>52.3237237</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1776417900</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Gaasperplas</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>POINT (4.9842364 52.3115025)</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>4.9842364</v>
-      </c>
-      <c r="K107" t="n">
-        <v>52.3115025</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>3187687711</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>POINT (4.8925639 52.3705391)</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
-        <v>4.8925639</v>
-      </c>
-      <c r="K108" t="n">
-        <v>52.3705391</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>3308281966</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>POINT (4.9008686 52.3773546)</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>4.9008686</v>
-      </c>
-      <c r="K109" t="n">
-        <v>52.3773546</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>4005961976</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bijlmer ArenA</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>POINT (4.9473959 52.3117311)</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>4.9473959</v>
-      </c>
-      <c r="K110" t="n">
-        <v>52.3117311</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>4005961977</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>POINT (4.9009371 52.3791884)</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>4.9009371</v>
-      </c>
-      <c r="K111" t="n">
-        <v>52.3791884</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>4005961978</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Centraal Station</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>POINT (4.9008785 52.3792082)</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>4.9008785</v>
-      </c>
-      <c r="K112" t="n">
-        <v>52.3792082</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>4005961979</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Noord</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>POINT (4.932585 52.4020575)</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>4.932585</v>
-      </c>
-      <c r="K113" t="n">
-        <v>52.4020575</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>4005961980</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Noord</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>POINT (4.932402 52.4021571)</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>4.932402</v>
-      </c>
-      <c r="K114" t="n">
-        <v>52.4021571</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>4005961981</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Noorderpark</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>POINT (4.9182755 52.3885941)</t>
-        </is>
-      </c>
-      <c r="J115" t="n">
-        <v>4.9182755</v>
-      </c>
-      <c r="K115" t="n">
-        <v>52.3885941</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>4005961982</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Noorderpark</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>POINT (4.9181114 52.3886982)</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>4.9181114</v>
-      </c>
-      <c r="K116" t="n">
-        <v>52.3886982</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>4015458389</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Amstelstation</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>POINT (4.9174059 52.3466361)</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>4.9174059</v>
-      </c>
-      <c r="K117" t="n">
-        <v>52.3466361</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>4015458390</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Amstelstation</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>POINT (4.9174767 52.3466483)</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>4.9174767</v>
-      </c>
-      <c r="K118" t="n">
-        <v>52.3466483</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>4064153242</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Station Diemen Zuid</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>POINT (4.9567748 52.3303113)</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>4.9567748</v>
-      </c>
-      <c r="K119" t="n">
-        <v>52.3303113</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>4064153243</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Station Diemen Zuid</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>POINT (4.9566878 52.3304057)</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>4.9566878</v>
-      </c>
-      <c r="K120" t="n">
-        <v>52.3304057</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>4064153244</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Verrijn Stuartweg</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>POINT (4.9673352 52.3283668)</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>4.9673352</v>
-      </c>
-      <c r="K121" t="n">
-        <v>52.3283668</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>4064245740</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>POINT (4.9300743 52.3296548)</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>4.9300743</v>
-      </c>
-      <c r="K122" t="n">
-        <v>52.3296548</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>4064245741</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>POINT (4.9302391 52.3297174)</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>4.9302391</v>
-      </c>
-      <c r="K123" t="n">
-        <v>52.3297174</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>4064245742</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>POINT (4.9302846 52.3297352)</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>4.9302846</v>
-      </c>
-      <c r="K124" t="n">
-        <v>52.3297352</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>4064245743</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Van der Madeweg</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>POINT (4.9304544 52.3297847)</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>4.9304544</v>
-      </c>
-      <c r="K125" t="n">
-        <v>52.3297847</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>4064245744</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Venserpolder</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>POINT (4.9462773 52.3268326)</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>4.9462773</v>
-      </c>
-      <c r="K126" t="n">
-        <v>52.3268326</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>4072288190</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>POINT (4.9206141 52.3401909)</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>4.9206141</v>
-      </c>
-      <c r="K127" t="n">
-        <v>52.3401909</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>4072288191</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>POINT (4.9208004 52.3402348)</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>4.9208004</v>
-      </c>
-      <c r="K128" t="n">
-        <v>52.3402348</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>4072288192</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>POINT (4.9208526 52.3402457)</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>4.9208526</v>
-      </c>
-      <c r="K129" t="n">
-        <v>52.3402457</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>4072288193</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Spaklerweg</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>POINT (4.9210454 52.3402871)</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>4.9210454</v>
-      </c>
-      <c r="K130" t="n">
-        <v>52.3402871</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>4073737789</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Amstelveenseweg</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>POINT (4.8575924 52.3383393)</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>4.8575924</v>
-      </c>
-      <c r="K131" t="n">
-        <v>52.3383393</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>4073737790</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Amstelveenseweg</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>POINT (4.8575709 52.3384751)</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>4.8575709</v>
-      </c>
-      <c r="K132" t="n">
-        <v>52.3384751</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>4073737791</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Overamstel</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>POINT (4.9177027 52.3316595)</t>
-        </is>
-      </c>
-      <c r="J133" t="n">
-        <v>4.9177027</v>
-      </c>
-      <c r="K133" t="n">
-        <v>52.3316595</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>4073737792</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Overamstel</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>POINT (4.9176682 52.3316938)</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>4.9176682</v>
-      </c>
-      <c r="K134" t="n">
-        <v>52.3316938</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>4073737793</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Overamstel</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>POINT (4.9176063 52.3317688)</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>4.9176063</v>
-      </c>
-      <c r="K135" t="n">
-        <v>52.3317688</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>4073737796</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Zuid</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>POINT (4.8743602 52.3391564)</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>4.8743602</v>
-      </c>
-      <c r="K136" t="n">
-        <v>52.3391564</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>4073737797</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Zuid</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>POINT (4.8743378 52.3392141)</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>4.8743378</v>
-      </c>
-      <c r="K137" t="n">
-        <v>52.3392141</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>4073737798</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Zuid</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>POINT (4.8739633 52.3393223)</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>4.8739633</v>
-      </c>
-      <c r="K138" t="n">
-        <v>52.3393223</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>4075987790</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Henk Sneevlietweg</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>POINT (4.8345741 52.3463868)</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>4.8345741</v>
-      </c>
-      <c r="K139" t="n">
-        <v>52.3463868</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>4076017505</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Lelylaan</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>POINT (4.8342535 52.3580602)</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>4.8342535</v>
-      </c>
-      <c r="K140" t="n">
-        <v>52.3580602</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>4076017506</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Lelylaan</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>POINT (4.8344667 52.3580615)</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>4.8344667</v>
-      </c>
-      <c r="K141" t="n">
-        <v>52.3580615</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>4077313758</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>De Vlugtlaan</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>POINT (4.838233 52.3794484)</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>4.838233</v>
-      </c>
-      <c r="K142" t="n">
-        <v>52.3794484</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>4077313760</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Isolatorweg</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>POINT (4.8505967 52.3952329)</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>4.8505967</v>
-      </c>
-      <c r="K143" t="n">
-        <v>52.3952329</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>4077313761</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Jan van Galenstraat</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>POINT (4.8353639 52.3725816)</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>4.8353639</v>
-      </c>
-      <c r="K144" t="n">
-        <v>52.3725816</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>4077313762</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Jan van Galenstraat</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>POINT (4.8351828 52.3725841)</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>4.8351828</v>
-      </c>
-      <c r="K145" t="n">
-        <v>52.3725841</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>4077313764</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Postjesweg</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>POINT (4.8340343 52.3645962)</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>4.8340343</v>
-      </c>
-      <c r="K146" t="n">
-        <v>52.3645962</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>4077313773</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Station Sloterdijk</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>POINT (4.8387632 52.3890363)</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>4.8387632</v>
-      </c>
-      <c r="K147" t="n">
-        <v>52.3890363</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>4192295866</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Duivendrecht</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>POINT (4.936458 52.3235649)</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>4.936458</v>
-      </c>
-      <c r="K148" t="n">
-        <v>52.3235649</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>4192295867</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Duivendrecht</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>POINT (4.9365601 52.3236024)</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>4.9365601</v>
-      </c>
-      <c r="K149" t="n">
-        <v>52.3236024</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>4192295879</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Strandvliet</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>POINT (4.9414198 52.3183621)</t>
-        </is>
-      </c>
-      <c r="J150" t="n">
-        <v>4.9414198</v>
-      </c>
-      <c r="K150" t="n">
-        <v>52.3183621</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>5046827919</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Station RAI</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>POINT (4.889539 52.337689)</t>
-        </is>
-      </c>
-      <c r="J151" t="n">
-        <v>4.889539</v>
-      </c>
-      <c r="K151" t="n">
-        <v>52.337689</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>5046828023</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Station RAI</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>POINT (4.8894203 52.3376062)</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>4.8894203</v>
-      </c>
-      <c r="K152" t="n">
-        <v>52.3376062</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>5367746707</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>POINT (4.8914299 52.3419224)</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>4.8914299</v>
-      </c>
-      <c r="K153" t="n">
-        <v>52.3419224</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>5367746708</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Europaplein</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>POINT (4.8915605 52.3411785)</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>4.8915605</v>
-      </c>
-      <c r="K154" t="n">
-        <v>52.3411785</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>5776624758</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>POINT (4.8910469 52.3606866)</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
-        <v>4.8910469</v>
-      </c>
-      <c r="K155" t="n">
-        <v>52.3606866</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>5776624759</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Vijzelgracht</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>POINT (4.8912207 52.3606661)</t>
-        </is>
-      </c>
-      <c r="J156" t="n">
-        <v>4.8912207</v>
-      </c>
-      <c r="K156" t="n">
-        <v>52.3606661</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>5776624760</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>De Pijp</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>POINT (4.8906476 52.3539585)</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>4.8906476</v>
-      </c>
-      <c r="K157" t="n">
-        <v>52.3539585</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>5776624761</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>De Pijp</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>POINT (4.8906487 52.3539577)</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>4.8906487</v>
-      </c>
-      <c r="K158" t="n">
-        <v>52.3539577</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>6484065646</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Rokin</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>POINT (4.8927726 52.3704434)</t>
-        </is>
-      </c>
-      <c r="J159" t="n">
-        <v>4.8927726</v>
-      </c>
-      <c r="K159" t="n">
-        <v>52.3704434</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>7106869918</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Nieuwmarkt</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>POINT (4.9010846 52.371353)</t>
-        </is>
-      </c>
-      <c r="J160" t="n">
-        <v>4.9010846</v>
-      </c>
-      <c r="K160" t="n">
-        <v>52.371353</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>7106870068</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Waterlooplein</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>POINT (4.9036061 52.3666363)</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>4.9036061</v>
-      </c>
-      <c r="K161" t="n">
-        <v>52.3666363</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>7106870071</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Waterlooplein</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>POINT (4.9037527 52.3666905)</t>
-        </is>
-      </c>
-      <c r="J162" t="n">
-        <v>4.9037527</v>
-      </c>
-      <c r="K162" t="n">
-        <v>52.3666905</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>7106870124</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Nieuwmarkt</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>POINT (4.9009379 52.3714238)</t>
-        </is>
-      </c>
-      <c r="J163" t="n">
-        <v>4.9009379</v>
-      </c>
-      <c r="K163" t="n">
-        <v>52.3714238</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>7106910981</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Weesperplein</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>POINT (4.9079182 52.3613263)</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>4.9079182</v>
-      </c>
-      <c r="K164" t="n">
-        <v>52.3613263</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>7106911022</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>stop_position</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Weesperplein</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>POINT (4.9078472 52.3613094)</t>
-        </is>
-      </c>
-      <c r="J165" t="n">
-        <v>4.9078472</v>
-      </c>
-      <c r="K165" t="n">
-        <v>52.3613094</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
